--- a/raw_data/20200818_saline/20200818_Sensor1_Test_30.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_30.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E45A3-7862-414B-87BB-CB851D9B5AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>26286.942213</v>
+        <v>26286.942212999998</v>
       </c>
       <c r="B2" s="1">
-        <v>7.301928</v>
+        <v>7.3019280000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>899.288000</v>
+        <v>899.28800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-203.099000</v>
+        <v>-203.09899999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>26297.311110</v>
+        <v>26297.311109999999</v>
       </c>
       <c r="G2" s="1">
-        <v>7.304809</v>
+        <v>7.3048089999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>917.558000</v>
+        <v>917.55799999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.698000</v>
+        <v>-171.69800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>26308.113449</v>
       </c>
       <c r="L2" s="1">
-        <v>7.307809</v>
+        <v>7.3078089999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>940.933000</v>
+        <v>940.93299999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.524000</v>
+        <v>-121.524</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>26318.631158</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.310731</v>
+        <v>7.3107309999999996</v>
       </c>
       <c r="R2" s="1">
-        <v>947.636000</v>
+        <v>947.63599999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.791000</v>
+        <v>-104.791</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>26329.552028</v>
+        <v>26329.552027999998</v>
       </c>
       <c r="V2" s="1">
-        <v>7.313764</v>
+        <v>7.3137639999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>954.152000</v>
+        <v>954.15200000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.306500</v>
+        <v>-89.3065</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>26340.001247</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.316667</v>
+        <v>7.3166669999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.174000</v>
+        <v>961.17399999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.329200</v>
+        <v>-77.3292</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>26351.215332</v>
@@ -571,210 +987,210 @@
         <v>7.319782</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.914000</v>
+        <v>965.91399999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.904700</v>
+        <v>-74.904700000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>26361.898629</v>
+        <v>26361.898628999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.322750</v>
+        <v>7.3227500000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.043000</v>
+        <v>973.04300000000001</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.371000</v>
+        <v>-79.370999999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>26372.449532</v>
+        <v>26372.449531999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.325680</v>
+        <v>7.3256800000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.011000</v>
+        <v>981.01099999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.794200</v>
+        <v>-90.794200000000004</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>26383.055974</v>
+        <v>26383.055973999999</v>
       </c>
       <c r="AU2" s="1">
         <v>7.328627</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.790000</v>
+        <v>990.79</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.305000</v>
+        <v>-108.30500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>26394.168840</v>
+        <v>26394.168839999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>7.331714</v>
+        <v>7.3317139999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>998.984000</v>
+        <v>998.98400000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.846000</v>
+        <v>-123.846</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>26405.424585</v>
+        <v>26405.424585000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.334840</v>
+        <v>7.3348399999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1037.320000</v>
+        <v>1037.32</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.470000</v>
+        <v>-195.47</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>26416.471947</v>
+        <v>26416.471946999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.337909</v>
+        <v>7.3379089999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1103.700000</v>
+        <v>1103.7</v>
       </c>
       <c r="BL2" s="1">
-        <v>-311.755000</v>
+        <v>-311.755</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>26426.555116</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.340710</v>
+        <v>7.3407099999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1211.640000</v>
+        <v>1211.6400000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-494.764000</v>
+        <v>-494.76400000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>26436.878383</v>
+        <v>26436.878382999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.343577</v>
+        <v>7.3435769999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1332.660000</v>
+        <v>1332.66</v>
       </c>
       <c r="BV2" s="1">
-        <v>-695.482000</v>
+        <v>-695.48199999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>26448.033909</v>
+        <v>26448.033909000002</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.346676</v>
+        <v>7.3466760000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1468.620000</v>
+        <v>1468.62</v>
       </c>
       <c r="CA2" s="1">
-        <v>-909.252000</v>
+        <v>-909.25199999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>26459.057987</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.349738</v>
+        <v>7.3497380000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>1825.040000</v>
+        <v>1825.04</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1417.050000</v>
+        <v>-1417.05</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>26287.295892</v>
+        <v>26287.295891999998</v>
       </c>
       <c r="B3" s="1">
-        <v>7.302027</v>
+        <v>7.3020269999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>899.172000</v>
+        <v>899.17200000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-203.072000</v>
+        <v>-203.072</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>26297.679111</v>
+        <v>26297.679111000001</v>
       </c>
       <c r="G3" s="1">
-        <v>7.304911</v>
+        <v>7.3049109999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>917.422000</v>
+        <v>917.42200000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-172.014000</v>
+        <v>-172.01400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>26308.497848</v>
+        <v>26308.497847999999</v>
       </c>
       <c r="L3" s="1">
-        <v>7.307916</v>
+        <v>7.3079159999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>940.890000</v>
+        <v>940.89</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.486000</v>
+        <v>-121.486</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>26319.006588</v>
@@ -783,88 +1199,88 @@
         <v>7.310835</v>
       </c>
       <c r="R3" s="1">
-        <v>947.631000</v>
+        <v>947.63099999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.851000</v>
+        <v>-104.851</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>26330.266269</v>
       </c>
       <c r="V3" s="1">
-        <v>7.313963</v>
+        <v>7.3139630000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>954.179000</v>
+        <v>954.17899999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.363200</v>
+        <v>-89.363200000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>26340.733838</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.316871</v>
+        <v>7.3168709999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.256000</v>
+        <v>961.25599999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.261400</v>
+        <v>-77.261399999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>26351.562001</v>
+        <v>26351.562000999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.319878</v>
+        <v>7.3198780000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.872000</v>
+        <v>965.87199999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.938100</v>
+        <v>-74.938100000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>26362.248836</v>
+        <v>26362.248835999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.322847</v>
+        <v>7.3228470000000003</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.017000</v>
+        <v>973.01700000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.377900</v>
+        <v>-79.377899999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>26372.831443</v>
+        <v>26372.831442999999</v>
       </c>
       <c r="AP3" s="1">
         <v>7.325787</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.003000</v>
+        <v>981.00300000000004</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.781500</v>
+        <v>-90.781499999999994</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>26383.765261</v>
@@ -873,180 +1289,180 @@
         <v>7.328824</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.815000</v>
+        <v>990.81500000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.312000</v>
+        <v>-108.312</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>26394.861294</v>
+        <v>26394.861293999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>7.331906</v>
       </c>
       <c r="BA3" s="1">
-        <v>998.989000</v>
+        <v>998.98900000000003</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.843000</v>
+        <v>-123.843</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>26405.862056</v>
+        <v>26405.862056000002</v>
       </c>
       <c r="BE3" s="1">
         <v>7.334962</v>
       </c>
       <c r="BF3" s="1">
-        <v>1037.340000</v>
+        <v>1037.3399999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.483000</v>
+        <v>-195.483</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>26416.579578</v>
+        <v>26416.579578000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.337939</v>
+        <v>7.3379390000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1103.680000</v>
+        <v>1103.68</v>
       </c>
       <c r="BL3" s="1">
-        <v>-311.759000</v>
+        <v>-311.75900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>26426.960875</v>
+        <v>26426.960875000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.340822</v>
+        <v>7.3408220000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-494.797000</v>
+        <v>-494.79700000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>26437.326745</v>
+        <v>26437.326744999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.343702</v>
+        <v>7.3437020000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>1332.620000</v>
+        <v>1332.62</v>
       </c>
       <c r="BV3" s="1">
-        <v>-695.493000</v>
+        <v>-695.49300000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>26448.515027</v>
+        <v>26448.515027000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.346810</v>
+        <v>7.3468099999999996</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="CA3" s="1">
-        <v>-909.464000</v>
+        <v>-909.46400000000006</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>26459.624880</v>
+        <v>26459.624879999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.349896</v>
+        <v>7.3498960000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1825.250000</v>
+        <v>1825.25</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1417.440000</v>
+        <v>-1417.44</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>26287.640580</v>
+        <v>26287.640579999999</v>
       </c>
       <c r="B4" s="1">
-        <v>7.302122</v>
+        <v>7.3021219999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>899.057000</v>
+        <v>899.05700000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>-203.036000</v>
+        <v>-203.036</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>26298.023372</v>
       </c>
       <c r="G4" s="1">
-        <v>7.305006</v>
+        <v>7.3050059999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>917.677000</v>
+        <v>917.67700000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.672000</v>
+        <v>-171.672</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>26309.186791</v>
       </c>
       <c r="L4" s="1">
-        <v>7.308107</v>
+        <v>7.3081069999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>940.880000</v>
+        <v>940.88</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.383000</v>
+        <v>-121.383</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>26319.705946</v>
+        <v>26319.705945999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.311029</v>
+        <v>7.3110290000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>947.615000</v>
+        <v>947.61500000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.833000</v>
+        <v>-104.833</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>26330.603884</v>
@@ -1055,300 +1471,300 @@
         <v>7.314057</v>
       </c>
       <c r="W4" s="1">
-        <v>954.183000</v>
+        <v>954.18299999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.378400</v>
+        <v>-89.378399999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>26341.081572</v>
+        <v>26341.081571999999</v>
       </c>
       <c r="AA4" s="1">
         <v>7.316967</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.194000</v>
+        <v>961.19399999999996</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.281500</v>
+        <v>-77.281499999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>26351.909696</v>
+        <v>26351.909695999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.319975</v>
+        <v>7.3199750000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.916000</v>
+        <v>965.91600000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.889700</v>
+        <v>-74.889700000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>26362.901536</v>
+        <v>26362.901536000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.323028</v>
+        <v>7.3230279999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.024000</v>
+        <v>973.024</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.349100</v>
+        <v>-79.349100000000007</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>26373.491651</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.325970</v>
+        <v>7.3259699999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.023000</v>
+        <v>981.02300000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.795500</v>
+        <v>-90.795500000000004</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>26384.174454</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.328937</v>
+        <v>7.3289369999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.778000</v>
+        <v>990.77800000000002</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.305000</v>
+        <v>-108.30500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>26395.272470</v>
+        <v>26395.27247</v>
       </c>
       <c r="AZ4" s="1">
-        <v>7.332020</v>
+        <v>7.33202</v>
       </c>
       <c r="BA4" s="1">
-        <v>998.965000</v>
+        <v>998.96500000000003</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>26406.224599</v>
+        <v>26406.224599000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.335062</v>
+        <v>7.3350619999999997</v>
       </c>
       <c r="BF4" s="1">
-        <v>1037.340000</v>
+        <v>1037.3399999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.483000</v>
+        <v>-195.483</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>26416.941192</v>
+        <v>26416.941191999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>7.338039</v>
+        <v>7.3380390000000002</v>
       </c>
       <c r="BK4" s="1">
-        <v>1103.720000</v>
+        <v>1103.72</v>
       </c>
       <c r="BL4" s="1">
-        <v>-311.769000</v>
+        <v>-311.76900000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>26427.361115</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.340934</v>
+        <v>7.3409339999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1211.630000</v>
+        <v>1211.6300000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-494.789000</v>
+        <v>-494.78899999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>26437.762755</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.343823</v>
+        <v>7.3438230000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1332.670000</v>
+        <v>1332.67</v>
       </c>
       <c r="BV4" s="1">
-        <v>-695.468000</v>
+        <v>-695.46799999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>26448.945518</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.346929</v>
+        <v>7.3469290000000003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1468.650000</v>
+        <v>1468.65</v>
       </c>
       <c r="CA4" s="1">
-        <v>-909.399000</v>
+        <v>-909.399</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>26460.142704</v>
+        <v>26460.142704000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.350040</v>
+        <v>7.3500399999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1825.330000</v>
+        <v>1825.33</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1416.070000</v>
+        <v>-1416.07</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>26288.321091</v>
+        <v>26288.321091000002</v>
       </c>
       <c r="B5" s="1">
-        <v>7.302311</v>
+        <v>7.3023110000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>899.156000</v>
+        <v>899.15599999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-203.196000</v>
+        <v>-203.196</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>26298.715255</v>
+        <v>26298.715254999999</v>
       </c>
       <c r="G5" s="1">
         <v>7.305199</v>
       </c>
       <c r="H5" s="1">
-        <v>917.831000</v>
+        <v>917.83100000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-172.059000</v>
+        <v>-172.059</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>26309.535479</v>
+        <v>26309.535478999998</v>
       </c>
       <c r="L5" s="1">
-        <v>7.308204</v>
+        <v>7.3082039999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>940.634000</v>
+        <v>940.63400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.350000</v>
+        <v>-121.35</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>26320.054799</v>
+        <v>26320.054799000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.311126</v>
+        <v>7.3111259999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>947.608000</v>
+        <v>947.60799999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.804000</v>
+        <v>-104.804</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>26330.951275</v>
+        <v>26330.951274999999</v>
       </c>
       <c r="V5" s="1">
-        <v>7.314153</v>
+        <v>7.3141530000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>954.116000</v>
+        <v>954.11599999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.409200</v>
+        <v>-89.409199999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>26341.429726</v>
+        <v>26341.429725999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.317064</v>
+        <v>7.3170640000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.264000</v>
+        <v>961.26400000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.319200</v>
+        <v>-77.319199999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>26352.561475</v>
+        <v>26352.561474999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.320156</v>
+        <v>7.3201559999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.868000</v>
+        <v>965.86800000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.881800</v>
+        <v>-74.881799999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>26363.294865</v>
@@ -1357,2553 +1773,2553 @@
         <v>7.323137</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.033000</v>
+        <v>973.03300000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.390900</v>
+        <v>-79.390900000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>26373.936034</v>
+        <v>26373.936033999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.326093</v>
+        <v>7.3260930000000002</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.041000</v>
+        <v>981.04100000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.778800</v>
+        <v>-90.778800000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>26384.565584</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.329046</v>
+        <v>7.3290459999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.793000</v>
+        <v>990.79300000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.303000</v>
+        <v>-108.303</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>26395.633525</v>
+        <v>26395.633525000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.332120</v>
+        <v>7.3321199999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>998.991000</v>
+        <v>998.99099999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.820000</v>
+        <v>-123.82</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>26406.585687</v>
+        <v>26406.585686999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.335163</v>
+        <v>7.3351629999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1037.320000</v>
+        <v>1037.32</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.475000</v>
+        <v>-195.47499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>26417.320601</v>
+        <v>26417.320600999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>7.338145</v>
+        <v>7.3381449999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1103.700000</v>
+        <v>1103.7</v>
       </c>
       <c r="BL5" s="1">
-        <v>-311.741000</v>
+        <v>-311.74099999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>26427.783210</v>
+        <v>26427.783210000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.341051</v>
+        <v>7.3410510000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1211.600000</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-494.794000</v>
+        <v>-494.79399999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>26438.194238</v>
       </c>
       <c r="BT5" s="1">
-        <v>7.343943</v>
+        <v>7.3439430000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>1332.720000</v>
+        <v>1332.72</v>
       </c>
       <c r="BV5" s="1">
-        <v>-695.415000</v>
+        <v>-695.41499999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>26449.366649</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.347046</v>
+        <v>7.3470459999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1468.620000</v>
+        <v>1468.62</v>
       </c>
       <c r="CA5" s="1">
-        <v>-909.458000</v>
+        <v>-909.45799999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>26460.660031</v>
+        <v>26460.660030999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.350183</v>
+        <v>7.3501830000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>1825.520000</v>
+        <v>1825.52</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1416.740000</v>
+        <v>-1416.74</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>26288.664322</v>
+        <v>26288.664322000001</v>
       </c>
       <c r="B6" s="1">
-        <v>7.302407</v>
+        <v>7.3024069999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>899.057000</v>
+        <v>899.05700000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-203.171000</v>
+        <v>-203.17099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>26299.061493</v>
+        <v>26299.061493000001</v>
       </c>
       <c r="G6" s="1">
-        <v>7.305295</v>
+        <v>7.3052950000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>917.176000</v>
+        <v>917.17600000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.937000</v>
+        <v>-171.93700000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>26309.878222</v>
+        <v>26309.878221999999</v>
       </c>
       <c r="L6" s="1">
-        <v>7.308300</v>
+        <v>7.3083</v>
       </c>
       <c r="M6" s="1">
-        <v>940.788000</v>
+        <v>940.78800000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.547000</v>
+        <v>-121.547</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>26320.404829</v>
+        <v>26320.404828999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.311224</v>
+        <v>7.3112240000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>947.622000</v>
+        <v>947.62199999999996</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.789000</v>
+        <v>-104.789</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>26331.599018</v>
+        <v>26331.599018000001</v>
       </c>
       <c r="V6" s="1">
-        <v>7.314333</v>
+        <v>7.3143330000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>954.154000</v>
+        <v>954.154</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.279700</v>
+        <v>-89.279700000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>26342.078989</v>
+        <v>26342.078989000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.317244</v>
+        <v>7.3172439999999996</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.313000</v>
+        <v>961.31299999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.338300</v>
+        <v>-77.338300000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>26352.939918</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.320261</v>
+        <v>7.3202610000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.897000</v>
+        <v>965.89700000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.932000</v>
+        <v>-74.932000000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>26363.643553</v>
+        <v>26363.643553000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.323234</v>
+        <v>7.3232340000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.037000</v>
+        <v>973.03700000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.405500</v>
+        <v>-79.405500000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>26374.296157</v>
+        <v>26374.296157000001</v>
       </c>
       <c r="AP6" s="1">
         <v>7.326193</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.042000</v>
+        <v>981.04200000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.786900</v>
+        <v>-90.786900000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>26384.928867</v>
+        <v>26384.928866999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.329147</v>
+        <v>7.3291469999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.799000</v>
+        <v>990.79899999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.306000</v>
+        <v>-108.306</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>26395.992630</v>
+        <v>26395.992630000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7.332220</v>
+        <v>7.3322200000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>998.976000</v>
+        <v>998.976</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.869000</v>
+        <v>-123.869</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>26407.002822</v>
+        <v>26407.002821999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.335279</v>
+        <v>7.3352789999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1037.340000</v>
+        <v>1037.3399999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.454000</v>
+        <v>-195.45400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>26417.731321</v>
+        <v>26417.731320999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.338259</v>
+        <v>7.3382589999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1103.710000</v>
+        <v>1103.71</v>
       </c>
       <c r="BL6" s="1">
-        <v>-311.778000</v>
+        <v>-311.77800000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>26428.180011</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.341161</v>
+        <v>7.3411609999999996</v>
       </c>
       <c r="BP6" s="1">
-        <v>1211.620000</v>
+        <v>1211.6199999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-494.815000</v>
+        <v>-494.815</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>26438.600988</v>
+        <v>26438.600987999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.344056</v>
+        <v>7.3440560000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1332.710000</v>
+        <v>1332.71</v>
       </c>
       <c r="BV6" s="1">
-        <v>-695.330000</v>
+        <v>-695.33</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>26449.789709</v>
+        <v>26449.789709000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.347164</v>
+        <v>7.3471640000000003</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="CA6" s="1">
-        <v>-909.426000</v>
+        <v>-909.42600000000004</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>26461.210134</v>
+        <v>26461.210134000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.350336</v>
+        <v>7.3503360000000004</v>
       </c>
       <c r="CE6" s="1">
-        <v>1825.130000</v>
+        <v>1825.13</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1417.670000</v>
+        <v>-1417.67</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>26289.008050</v>
+        <v>26289.00805</v>
       </c>
       <c r="B7" s="1">
-        <v>7.302502</v>
+        <v>7.3025019999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>899.122000</v>
+        <v>899.12199999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-203.225000</v>
+        <v>-203.22499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>26299.405684</v>
+        <v>26299.405684000001</v>
       </c>
       <c r="G7" s="1">
-        <v>7.305390</v>
+        <v>7.3053900000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>917.569000</v>
+        <v>917.56899999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.567000</v>
+        <v>-171.56700000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>26310.538886</v>
+        <v>26310.538885999998</v>
       </c>
       <c r="L7" s="1">
-        <v>7.308483</v>
+        <v>7.3084829999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>940.897000</v>
+        <v>940.89700000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.341000</v>
+        <v>-121.34099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>26321.059527</v>
+        <v>26321.059527000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.311405</v>
+        <v>7.3114049999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>947.657000</v>
+        <v>947.65700000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.787000</v>
+        <v>-104.78700000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>26331.982922</v>
+        <v>26331.982921999999</v>
       </c>
       <c r="V7" s="1">
-        <v>7.314440</v>
+        <v>7.3144400000000003</v>
       </c>
       <c r="W7" s="1">
-        <v>954.216000</v>
+        <v>954.21600000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.306600</v>
+        <v>-89.306600000000003</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>26342.473844</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.317354</v>
+        <v>7.3173539999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.323000</v>
+        <v>961.32299999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.405900</v>
+        <v>-77.405900000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>26353.284109</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.320357</v>
+        <v>7.3203569999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.919000</v>
+        <v>965.91899999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.900100</v>
+        <v>-74.900099999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>26363.990751</v>
+        <v>26363.990751000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.323331</v>
+        <v>7.3233309999999996</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.034000</v>
+        <v>973.03399999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.370500</v>
+        <v>-79.370500000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>26374.659697</v>
+        <v>26374.659696999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.326294</v>
+        <v>7.3262939999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.048000</v>
+        <v>981.048</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.794700</v>
+        <v>-90.794700000000006</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>26385.346498</v>
+        <v>26385.346497999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.329263</v>
+        <v>7.3292630000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.805000</v>
+        <v>990.80499999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.307000</v>
+        <v>-108.307</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>26396.404804</v>
+        <v>26396.404804000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.332335</v>
+        <v>7.3323349999999996</v>
       </c>
       <c r="BA7" s="1">
-        <v>998.982000</v>
+        <v>998.98199999999997</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.859000</v>
+        <v>-123.85899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>26407.309845</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.335364</v>
+        <v>7.3353640000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1037.340000</v>
+        <v>1037.3399999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.461000</v>
+        <v>-195.46100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>26418.076024</v>
+        <v>26418.076024000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.338354</v>
+        <v>7.3383539999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1103.710000</v>
+        <v>1103.71</v>
       </c>
       <c r="BL7" s="1">
-        <v>-311.749000</v>
+        <v>-311.74900000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>26428.599163</v>
+        <v>26428.599162999999</v>
       </c>
       <c r="BO7" s="1">
         <v>7.341278</v>
       </c>
       <c r="BP7" s="1">
-        <v>1211.630000</v>
+        <v>1211.6300000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-494.811000</v>
+        <v>-494.81099999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>26439.032513</v>
+        <v>26439.032512999998</v>
       </c>
       <c r="BT7" s="1">
         <v>7.344176</v>
       </c>
       <c r="BU7" s="1">
-        <v>1332.760000</v>
+        <v>1332.76</v>
       </c>
       <c r="BV7" s="1">
-        <v>-695.313000</v>
+        <v>-695.31299999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>26450.217262</v>
+        <v>26450.217261999998</v>
       </c>
       <c r="BY7" s="1">
         <v>7.347283</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="CA7" s="1">
-        <v>-909.398000</v>
+        <v>-909.39800000000002</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>26461.742836</v>
+        <v>26461.742836000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.350484</v>
+        <v>7.3504839999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1825.310000</v>
+        <v>1825.31</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1416.300000</v>
+        <v>-1416.3</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>26289.664290</v>
+        <v>26289.664290000001</v>
       </c>
       <c r="B8" s="1">
-        <v>7.302685</v>
+        <v>7.3026850000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>899.199000</v>
+        <v>899.19899999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-203.193000</v>
+        <v>-203.19300000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>26300.054985</v>
+        <v>26300.054984999999</v>
       </c>
       <c r="G8" s="1">
-        <v>7.305571</v>
+        <v>7.3055709999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>917.290000</v>
+        <v>917.29</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.716000</v>
+        <v>-171.71600000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>26310.914853</v>
+        <v>26310.914852999998</v>
       </c>
       <c r="L8" s="1">
-        <v>7.308587</v>
+        <v>7.3085870000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>940.913000</v>
+        <v>940.91300000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.594000</v>
+        <v>-121.59399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>26321.449415</v>
+        <v>26321.449414999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.311514</v>
+        <v>7.3115139999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>947.682000</v>
+        <v>947.68200000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.820000</v>
+        <v>-104.82</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>26332.327182</v>
+        <v>26332.327182000001</v>
       </c>
       <c r="V8" s="1">
-        <v>7.314535</v>
+        <v>7.3145350000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>954.246000</v>
+        <v>954.24599999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.305000</v>
+        <v>-89.305000000000007</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>26342.826000</v>
+        <v>26342.826000000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>7.317452</v>
+        <v>7.3174520000000003</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.197000</v>
+        <v>961.197</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.330300</v>
+        <v>-77.330299999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>26353.627868</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.320452</v>
+        <v>7.3204520000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.900000</v>
+        <v>965.9</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.898000</v>
+        <v>-74.897999999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>26364.408382</v>
+        <v>26364.408382000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>7.323447</v>
+        <v>7.3234469999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.019000</v>
+        <v>973.01900000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.386400</v>
+        <v>-79.386399999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>26375.069429</v>
+        <v>26375.069428999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.326408</v>
+        <v>7.3264079999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.037000</v>
+        <v>981.03700000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.798100</v>
+        <v>-90.798100000000005</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>26385.657987</v>
+        <v>26385.657986999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.329349</v>
+        <v>7.3293489999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.797000</v>
+        <v>990.79700000000003</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.325000</v>
+        <v>-108.325</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>26396.710340</v>
+        <v>26396.710340000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.332420</v>
+        <v>7.3324199999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>998.976000</v>
+        <v>998.976</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>26407.668981</v>
+        <v>26407.668980999999</v>
       </c>
       <c r="BE8" s="1">
         <v>7.335464</v>
       </c>
       <c r="BF8" s="1">
-        <v>1037.330000</v>
+        <v>1037.33</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.468000</v>
+        <v>-195.46799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>26418.462887</v>
+        <v>26418.462887000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.338462</v>
+        <v>7.3384619999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1103.730000</v>
+        <v>1103.73</v>
       </c>
       <c r="BL8" s="1">
-        <v>-311.766000</v>
+        <v>-311.76600000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>26428.998409</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.341388</v>
+        <v>7.3413880000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1211.640000</v>
+        <v>1211.6400000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-494.809000</v>
+        <v>-494.80900000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>26439.458539</v>
+        <v>26439.458538999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.344294</v>
+        <v>7.3442939999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>1332.810000</v>
+        <v>1332.81</v>
       </c>
       <c r="BV8" s="1">
-        <v>-695.333000</v>
+        <v>-695.33299999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>26450.633404</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.347398</v>
+        <v>7.3473980000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1468.710000</v>
+        <v>1468.71</v>
       </c>
       <c r="CA8" s="1">
-        <v>-909.450000</v>
+        <v>-909.45</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>26462.262605</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.350629</v>
+        <v>7.3506289999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>1823.970000</v>
+        <v>1823.97</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1416.070000</v>
+        <v>-1416.07</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>26290.031794</v>
+        <v>26290.031793999999</v>
       </c>
       <c r="B9" s="1">
-        <v>7.302787</v>
+        <v>7.3027870000000004</v>
       </c>
       <c r="C9" s="1">
-        <v>899.150000</v>
+        <v>899.15</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.978000</v>
+        <v>-202.97800000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>26300.438851</v>
+        <v>26300.438850999999</v>
       </c>
       <c r="G9" s="1">
-        <v>7.305677</v>
+        <v>7.3056770000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>917.218000</v>
+        <v>917.21799999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.614000</v>
+        <v>-171.614</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>26311.258084</v>
+        <v>26311.258084000001</v>
       </c>
       <c r="L9" s="1">
-        <v>7.308683</v>
+        <v>7.3086830000000003</v>
       </c>
       <c r="M9" s="1">
-        <v>940.911000</v>
+        <v>940.91099999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.464000</v>
+        <v>-121.464</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>26321.798566</v>
+        <v>26321.798566000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.311611</v>
+        <v>7.3116110000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>947.650000</v>
+        <v>947.65</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.813000</v>
+        <v>-104.813</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>26332.675368</v>
       </c>
       <c r="V9" s="1">
-        <v>7.314632</v>
+        <v>7.3146319999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>954.235000</v>
+        <v>954.23500000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.353500</v>
+        <v>-89.353499999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>26343.173695</v>
+        <v>26343.173695000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.317548</v>
+        <v>7.3175480000000004</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.312000</v>
+        <v>961.31200000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.304500</v>
+        <v>-77.304500000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>26354.043981</v>
+        <v>26354.043980999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.320568</v>
+        <v>7.3205679999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.918000</v>
+        <v>965.91800000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.908000</v>
+        <v>-74.908000000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>26364.700684</v>
+        <v>26364.700683999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.323528</v>
+        <v>7.3235279999999996</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.017000</v>
+        <v>973.01700000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.382900</v>
+        <v>-79.382900000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>26375.377936</v>
+        <v>26375.377936000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.326494</v>
+        <v>7.3264940000000003</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.034000</v>
+        <v>981.03399999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.760600</v>
+        <v>-90.760599999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>26386.023538</v>
+        <v>26386.023538000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.329451</v>
+        <v>7.3294509999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.807000</v>
+        <v>990.80700000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.301000</v>
+        <v>-108.301</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>26397.068452</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.332519</v>
+        <v>7.3325189999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>998.972000</v>
+        <v>998.97199999999998</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.847000</v>
+        <v>-123.84699999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>26408.030320</v>
+        <v>26408.030320000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.335564</v>
+        <v>7.3355639999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1037.330000</v>
+        <v>1037.33</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.475000</v>
+        <v>-195.47499999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>26418.839350</v>
+        <v>26418.839349999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.338566</v>
+        <v>7.3385660000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1103.740000</v>
+        <v>1103.74</v>
       </c>
       <c r="BL9" s="1">
-        <v>-311.774000</v>
+        <v>-311.774</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>26429.420008</v>
+        <v>26429.420008000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.341506</v>
+        <v>7.3415059999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1211.630000</v>
+        <v>1211.6300000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-494.824000</v>
+        <v>-494.82400000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>26439.882650</v>
+        <v>26439.88265</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.344412</v>
+        <v>7.3444120000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1332.840000</v>
+        <v>1332.84</v>
       </c>
       <c r="BV9" s="1">
-        <v>-695.322000</v>
+        <v>-695.322</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>26451.087276</v>
+        <v>26451.087275999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.347524</v>
+        <v>7.3475239999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1468.810000</v>
+        <v>1468.81</v>
       </c>
       <c r="CA9" s="1">
-        <v>-909.434000</v>
+        <v>-909.43399999999997</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>26462.780956</v>
+        <v>26462.780955999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.350772</v>
+        <v>7.3507720000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1823.660000</v>
+        <v>1823.66</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1417.460000</v>
+        <v>-1417.46</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>26290.376016</v>
+        <v>26290.376015999998</v>
       </c>
       <c r="B10" s="1">
-        <v>7.302882</v>
+        <v>7.3028820000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>899.157000</v>
+        <v>899.15700000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.982000</v>
+        <v>-202.982</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>26300.783570</v>
+        <v>26300.78357</v>
       </c>
       <c r="G10" s="1">
-        <v>7.305773</v>
+        <v>7.3057730000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>917.347000</v>
+        <v>917.34699999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.606000</v>
+        <v>-171.60599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>26311.608262</v>
+        <v>26311.608262000002</v>
       </c>
       <c r="L10" s="1">
-        <v>7.308780</v>
+        <v>7.3087799999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>940.872000</v>
+        <v>940.87199999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.549000</v>
+        <v>-121.54900000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>26322.145798</v>
+        <v>26322.145798000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.311707</v>
+        <v>7.3117070000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>947.614000</v>
+        <v>947.61400000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.821000</v>
+        <v>-104.821</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>26333.099416</v>
+        <v>26333.099416000001</v>
       </c>
       <c r="V10" s="1">
-        <v>7.314750</v>
+        <v>7.3147500000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>954.159000</v>
+        <v>954.15899999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.374000</v>
+        <v>-89.373999999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>26343.905259</v>
+        <v>26343.905258999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.317751</v>
+        <v>7.3177510000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.235000</v>
+        <v>961.23500000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.241700</v>
+        <v>-77.241699999999994</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>26354.321271</v>
+        <v>26354.321271000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.320645</v>
+        <v>7.3206449999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.902000</v>
+        <v>965.90200000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.914200</v>
+        <v>-74.914199999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>26365.049741</v>
+        <v>26365.049740999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>7.323625</v>
+        <v>7.3236249999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.040000</v>
+        <v>973.04</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.406400</v>
+        <v>-79.406400000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>26375.737040</v>
+        <v>26375.73704</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.326594</v>
+        <v>7.3265940000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.041000</v>
+        <v>981.04100000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.802900</v>
+        <v>-90.802899999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>26386.388130</v>
+        <v>26386.388129999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>7.329552</v>
+        <v>7.3295519999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.810000</v>
+        <v>990.81</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.308000</v>
+        <v>-108.30800000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>26397.429043</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.332619</v>
+        <v>7.3326190000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>998.976000</v>
+        <v>998.976</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>26408.756709</v>
+        <v>26408.756709000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.335766</v>
+        <v>7.3357659999999996</v>
       </c>
       <c r="BF10" s="1">
-        <v>1037.340000</v>
+        <v>1037.3399999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.462000</v>
+        <v>-195.46199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>26419.593307</v>
+        <v>26419.593306999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.338776</v>
+        <v>7.3387760000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1103.730000</v>
+        <v>1103.73</v>
       </c>
       <c r="BL10" s="1">
-        <v>-311.762000</v>
+        <v>-311.762</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>26429.815852</v>
       </c>
       <c r="BO10" s="1">
-        <v>7.341616</v>
+        <v>7.3416160000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1211.630000</v>
+        <v>1211.6300000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-494.864000</v>
+        <v>-494.86399999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>26440.302730</v>
+        <v>26440.302729999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.344529</v>
+        <v>7.3445289999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1332.850000</v>
+        <v>1332.85</v>
       </c>
       <c r="BV10" s="1">
-        <v>-695.244000</v>
+        <v>-695.24400000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>26451.534635</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.347649</v>
+        <v>7.3476489999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1468.720000</v>
+        <v>1468.72</v>
       </c>
       <c r="CA10" s="1">
-        <v>-909.406000</v>
+        <v>-909.40599999999995</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>26463.316110</v>
+        <v>26463.31611</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.350921</v>
+        <v>7.3509209999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>1823.870000</v>
+        <v>1823.87</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1416.900000</v>
+        <v>-1416.9</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>26290.720241</v>
+        <v>26290.720240999999</v>
       </c>
       <c r="B11" s="1">
-        <v>7.302978</v>
+        <v>7.3029780000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>899.170000</v>
+        <v>899.17</v>
       </c>
       <c r="D11" s="1">
-        <v>-203.378000</v>
+        <v>-203.37799999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>26301.128787</v>
+        <v>26301.128787000001</v>
       </c>
       <c r="G11" s="1">
-        <v>7.305869</v>
+        <v>7.3058690000000004</v>
       </c>
       <c r="H11" s="1">
-        <v>917.478000</v>
+        <v>917.47799999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.768000</v>
+        <v>-171.768</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>26312.031870</v>
+        <v>26312.031869999999</v>
       </c>
       <c r="L11" s="1">
-        <v>7.308898</v>
+        <v>7.3088980000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>940.919000</v>
+        <v>940.91899999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.478000</v>
+        <v>-121.47799999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>26322.553980</v>
+        <v>26322.553980000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.311821</v>
+        <v>7.3118210000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>947.629000</v>
+        <v>947.62900000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.790000</v>
+        <v>-104.79</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>26333.378700</v>
+        <v>26333.378700000001</v>
       </c>
       <c r="V11" s="1">
-        <v>7.314827</v>
+        <v>7.3148270000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>954.202000</v>
+        <v>954.202</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.347200</v>
+        <v>-89.347200000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>26344.227162</v>
+        <v>26344.227161999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>7.317841</v>
+        <v>7.3178409999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.329000</v>
+        <v>961.32899999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.223800</v>
+        <v>-77.223799999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>26354.668941</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.320741</v>
+        <v>7.3207409999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.938000</v>
+        <v>965.93799999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.893800</v>
+        <v>-74.893799999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>26365.397406</v>
       </c>
       <c r="AK11" s="1">
-        <v>7.323722</v>
+        <v>7.3237220000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.027000</v>
+        <v>973.02700000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.371900</v>
+        <v>-79.371899999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>26376.099719</v>
+        <v>26376.099719000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.326694</v>
+        <v>7.3266939999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.024000</v>
+        <v>981.024</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.775100</v>
+        <v>-90.775099999999995</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>26387.115419</v>
+        <v>26387.115419000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.329754</v>
+        <v>7.3297540000000003</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.787000</v>
+        <v>990.78700000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.308000</v>
+        <v>-108.30800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>26398.146295</v>
+        <v>26398.146294999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.332818</v>
+        <v>7.3328179999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.980000</v>
+        <v>998.98</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.856000</v>
+        <v>-123.85599999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>26409.131652</v>
       </c>
       <c r="BE11" s="1">
-        <v>7.335870</v>
+        <v>7.3358699999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1037.340000</v>
+        <v>1037.3399999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.479000</v>
+        <v>-195.47900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>26419.966789</v>
+        <v>26419.966788999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.338880</v>
+        <v>7.3388799999999996</v>
       </c>
       <c r="BK11" s="1">
-        <v>1103.730000</v>
+        <v>1103.73</v>
       </c>
       <c r="BL11" s="1">
-        <v>-311.790000</v>
+        <v>-311.79000000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>26430.237913</v>
+        <v>26430.237913000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.341733</v>
+        <v>7.3417329999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1211.590000</v>
+        <v>1211.5899999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-494.806000</v>
+        <v>-494.80599999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>26440.730281</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.344647</v>
+        <v>7.3446470000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1332.940000</v>
+        <v>1332.94</v>
       </c>
       <c r="BV11" s="1">
-        <v>-695.332000</v>
+        <v>-695.33199999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>26452.295995</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.347860</v>
+        <v>7.3478599999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1468.700000</v>
+        <v>1468.7</v>
       </c>
       <c r="CA11" s="1">
-        <v>-909.552000</v>
+        <v>-909.55200000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>26464.035803</v>
+        <v>26464.035802999999</v>
       </c>
       <c r="CD11" s="1">
         <v>7.351121</v>
       </c>
       <c r="CE11" s="1">
-        <v>1824.290000</v>
+        <v>1824.29</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1415.840000</v>
+        <v>-1415.84</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>26291.137902</v>
+        <v>26291.137901999999</v>
       </c>
       <c r="B12" s="1">
-        <v>7.303094</v>
+        <v>7.3030939999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>899.241000</v>
+        <v>899.24099999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-203.140000</v>
+        <v>-203.14</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>26301.840546</v>
+        <v>26301.840545999999</v>
       </c>
       <c r="G12" s="1">
-        <v>7.306067</v>
+        <v>7.3060669999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>917.228000</v>
+        <v>917.22799999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.841000</v>
+        <v>-171.84100000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>26312.321011</v>
       </c>
       <c r="L12" s="1">
-        <v>7.308978</v>
+        <v>7.3089779999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>940.654000</v>
+        <v>940.654</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.447000</v>
+        <v>-121.447</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>26322.852070</v>
+        <v>26322.852070000001</v>
       </c>
       <c r="Q12" s="1">
         <v>7.311903</v>
       </c>
       <c r="R12" s="1">
-        <v>947.656000</v>
+        <v>947.65599999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.815000</v>
+        <v>-104.815</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>26333.721896</v>
+        <v>26333.721895999999</v>
       </c>
       <c r="V12" s="1">
-        <v>7.314923</v>
+        <v>7.3149230000000003</v>
       </c>
       <c r="W12" s="1">
-        <v>954.170000</v>
+        <v>954.17</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.378200</v>
+        <v>-89.378200000000007</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>26344.570922</v>
+        <v>26344.570921999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.317936</v>
+        <v>7.3179360000000004</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.238000</v>
+        <v>961.23800000000006</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.377400</v>
+        <v>-77.377399999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>26355.007741</v>
+        <v>26355.007741000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.320835</v>
+        <v>7.3208349999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.894000</v>
+        <v>965.89400000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.881900</v>
+        <v>-74.881900000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>26366.095772</v>
+        <v>26366.095772000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.323915</v>
+        <v>7.3239150000000004</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.019000</v>
+        <v>973.01900000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.375000</v>
+        <v>-79.375</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>26376.826718</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.326896</v>
+        <v>7.3268959999999996</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.020000</v>
+        <v>981.02</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.798500</v>
+        <v>-90.798500000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>26387.480321</v>
+        <v>26387.480320999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.329856</v>
+        <v>7.3298560000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.790000</v>
+        <v>990.79</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.313000</v>
+        <v>-108.313</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>26398.504898</v>
+        <v>26398.504897999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.332918</v>
+        <v>7.3329180000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.981000</v>
+        <v>998.98099999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.844000</v>
+        <v>-123.84399999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>26409.493732</v>
+        <v>26409.493731999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.335970</v>
+        <v>7.3359699999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1037.330000</v>
+        <v>1037.33</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.470000</v>
+        <v>-195.47</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>26420.341733</v>
+        <v>26420.341733000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>7.338984</v>
       </c>
       <c r="BK12" s="1">
-        <v>1103.730000</v>
+        <v>1103.73</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.764000</v>
+        <v>-311.76400000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>26430.944960</v>
+        <v>26430.944960000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.341929</v>
+        <v>7.3419290000000004</v>
       </c>
       <c r="BP12" s="1">
-        <v>1211.620000</v>
+        <v>1211.6199999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-494.793000</v>
+        <v>-494.79300000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>26441.450505</v>
+        <v>26441.450505000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.344847</v>
+        <v>7.3448469999999997</v>
       </c>
       <c r="BU12" s="1">
-        <v>1332.980000</v>
+        <v>1332.98</v>
       </c>
       <c r="BV12" s="1">
-        <v>-695.271000</v>
+        <v>-695.27099999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>26452.439339</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.347900</v>
+        <v>7.3479000000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1468.640000</v>
+        <v>1468.64</v>
       </c>
       <c r="CA12" s="1">
-        <v>-909.533000</v>
+        <v>-909.53300000000002</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>26464.380026</v>
+        <v>26464.380025999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.351217</v>
+        <v>7.3512170000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1823.630000</v>
+        <v>1823.63</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1417.000000</v>
+        <v>-1417</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>26291.413647</v>
+        <v>26291.413647000001</v>
       </c>
       <c r="B13" s="1">
-        <v>7.303170</v>
+        <v>7.3031699999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>899.150000</v>
+        <v>899.15</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.928000</v>
+        <v>-202.928</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>26302.170400</v>
+        <v>26302.170399999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7.306158</v>
+        <v>7.3061579999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>917.140000</v>
+        <v>917.14</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.446000</v>
+        <v>-171.446</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>26312.664243</v>
+        <v>26312.664242999999</v>
       </c>
       <c r="L13" s="1">
-        <v>7.309073</v>
+        <v>7.3090729999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>940.863000</v>
+        <v>940.86300000000006</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.425000</v>
+        <v>-121.425</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>26323.546966</v>
+        <v>26323.546966000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.312096</v>
+        <v>7.3120960000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>947.687000</v>
+        <v>947.68700000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.820000</v>
+        <v>-104.82</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>26334.064630</v>
+        <v>26334.064630000001</v>
       </c>
       <c r="V13" s="1">
-        <v>7.315018</v>
+        <v>7.3150180000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>954.240000</v>
+        <v>954.24</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.374600</v>
+        <v>-89.374600000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>26345.269126</v>
+        <v>26345.269125999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.318130</v>
+        <v>7.31813</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.203000</v>
+        <v>961.20299999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.312400</v>
+        <v>-77.312399999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>26355.699659</v>
+        <v>26355.699659000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.321028</v>
+        <v>7.3210280000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.908000</v>
+        <v>965.90800000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.906500</v>
+        <v>-74.906499999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>26366.443964</v>
+        <v>26366.443963999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.324012</v>
+        <v>7.3240119999999997</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.039000</v>
+        <v>973.03899999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.385100</v>
+        <v>-79.385099999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>26377.204669</v>
+        <v>26377.204668999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.327001</v>
+        <v>7.3270010000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.027000</v>
+        <v>981.02700000000004</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.760800</v>
+        <v>-90.760800000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>26387.845344</v>
+        <v>26387.845344000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.329957</v>
+        <v>7.3299570000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.785000</v>
+        <v>990.78499999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.306000</v>
+        <v>-108.306</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>26398.862978</v>
+        <v>26398.862978000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.333017</v>
+        <v>7.3330169999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>998.970000</v>
+        <v>998.97</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.829000</v>
+        <v>-123.82899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>26410.158865</v>
+        <v>26410.158865000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.336155</v>
+        <v>7.3361549999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1037.360000</v>
+        <v>1037.3599999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.468000</v>
+        <v>-195.46799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>26421.021252</v>
+        <v>26421.021251999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.339173</v>
+        <v>7.3391729999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1103.700000</v>
+        <v>1103.7</v>
       </c>
       <c r="BL13" s="1">
-        <v>-311.756000</v>
+        <v>-311.75599999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>26431.071227</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.341964</v>
+        <v>7.3419639999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1211.610000</v>
+        <v>1211.6099999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-494.821000</v>
+        <v>-494.82100000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>26441.572986</v>
+        <v>26441.572985999999</v>
       </c>
       <c r="BT13" s="1">
         <v>7.344881</v>
       </c>
       <c r="BU13" s="1">
-        <v>1333.030000</v>
+        <v>1333.03</v>
       </c>
       <c r="BV13" s="1">
-        <v>-695.234000</v>
+        <v>-695.23400000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>26452.861467</v>
+        <v>26452.861466999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.348017</v>
+        <v>7.3480169999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="CA13" s="1">
-        <v>-909.509000</v>
+        <v>-909.50900000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>26464.897387</v>
+        <v>26464.897387000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.351360</v>
+        <v>7.3513599999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>1825.540000</v>
+        <v>1825.54</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1417.580000</v>
+        <v>-1417.58</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>26291.757221</v>
       </c>
       <c r="B14" s="1">
-        <v>7.303266</v>
+        <v>7.3032659999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>899.259000</v>
+        <v>899.25900000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.961000</v>
+        <v>-202.96100000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>26302.514112</v>
+        <v>26302.514112000001</v>
       </c>
       <c r="G14" s="1">
         <v>7.306254</v>
       </c>
       <c r="H14" s="1">
-        <v>917.297000</v>
+        <v>917.29700000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.424000</v>
+        <v>-171.42400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>26313.012434</v>
       </c>
       <c r="L14" s="1">
-        <v>7.309170</v>
+        <v>7.3091699999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>940.906000</v>
+        <v>940.90599999999995</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.551000</v>
+        <v>-121.551</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>26323.898164</v>
+        <v>26323.898163999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.312194</v>
+        <v>7.3121939999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>947.644000</v>
+        <v>947.64400000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.836000</v>
+        <v>-104.836</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>26334.752581</v>
+        <v>26334.752581000001</v>
       </c>
       <c r="V14" s="1">
-        <v>7.315209</v>
+        <v>7.3152090000000003</v>
       </c>
       <c r="W14" s="1">
-        <v>954.220000</v>
+        <v>954.22</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.311600</v>
+        <v>-89.311599999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>26345.616951</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.318227</v>
+        <v>7.3182270000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.216000</v>
+        <v>961.21600000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.369300</v>
+        <v>-77.369299999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>26356.038889</v>
+        <v>26356.038888999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.321122</v>
+        <v>7.3211219999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.909000</v>
+        <v>965.90899999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.913500</v>
+        <v>-74.913499999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>26366.793174</v>
+        <v>26366.793173999999</v>
       </c>
       <c r="AK14" s="1">
         <v>7.324109</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.026000</v>
+        <v>973.02599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.376700</v>
+        <v>-79.3767</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>26377.564269</v>
+        <v>26377.564268999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>7.327101</v>
+        <v>7.3271009999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.025000</v>
+        <v>981.02499999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.783700</v>
+        <v>-90.783699999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>26388.517920</v>
+        <v>26388.517919999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.330144</v>
+        <v>7.3301439999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.789000</v>
+        <v>990.78899999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.303000</v>
+        <v>-108.303</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>26399.538566</v>
+        <v>26399.538565999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.333205</v>
+        <v>7.3332050000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.993000</v>
+        <v>998.99300000000005</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.841000</v>
+        <v>-123.84099999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>26410.612705</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.336281</v>
+        <v>7.3362809999999996</v>
       </c>
       <c r="BF14" s="1">
-        <v>1037.350000</v>
+        <v>1037.3499999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.475000</v>
+        <v>-195.47499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>26421.129120</v>
+        <v>26421.129120000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.339203</v>
+        <v>7.3392030000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1103.720000</v>
+        <v>1103.72</v>
       </c>
       <c r="BL14" s="1">
-        <v>-311.764000</v>
+        <v>-311.76400000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>26431.481383</v>
+        <v>26431.481382999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.342078</v>
+        <v>7.3420779999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1211.640000</v>
+        <v>1211.6400000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-494.896000</v>
+        <v>-494.89600000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>26442.410470</v>
+        <v>26442.410469999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.345114</v>
+        <v>7.3451139999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1333.100000</v>
+        <v>1333.1</v>
       </c>
       <c r="BV14" s="1">
-        <v>-695.351000</v>
+        <v>-695.351</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>26453.282538</v>
+        <v>26453.282537999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.348134</v>
+        <v>7.3481339999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1468.730000</v>
+        <v>1468.73</v>
       </c>
       <c r="CA14" s="1">
-        <v>-909.531000</v>
+        <v>-909.53099999999995</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>26465.437034</v>
+        <v>26465.437033999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.351510</v>
+        <v>7.3515100000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>1823.930000</v>
+        <v>1823.93</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1416.070000</v>
+        <v>-1416.07</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>26292.100110</v>
+        <v>26292.100109999999</v>
       </c>
       <c r="B15" s="1">
-        <v>7.303361</v>
+        <v>7.3033609999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>899.353000</v>
+        <v>899.35299999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-203.195000</v>
+        <v>-203.19499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>26303.205039</v>
       </c>
       <c r="G15" s="1">
-        <v>7.306446</v>
+        <v>7.3064460000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>917.226000</v>
+        <v>917.226</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.676000</v>
+        <v>-171.67599999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>26313.704381</v>
       </c>
       <c r="L15" s="1">
-        <v>7.309362</v>
+        <v>7.3093620000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>941.064000</v>
+        <v>941.06399999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.517000</v>
+        <v>-121.517</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>26324.595507</v>
+        <v>26324.595507000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.312388</v>
+        <v>7.3123880000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>947.601000</v>
+        <v>947.601</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.844000</v>
+        <v>-104.84399999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>26335.097332</v>
+        <v>26335.097332000001</v>
       </c>
       <c r="V15" s="1">
-        <v>7.315305</v>
+        <v>7.3153050000000004</v>
       </c>
       <c r="W15" s="1">
-        <v>954.197000</v>
+        <v>954.197</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.366100</v>
+        <v>-89.366100000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>26345.966166</v>
+        <v>26345.966165999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.318324</v>
+        <v>7.3183239999999996</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.246000</v>
+        <v>961.24599999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.287200</v>
+        <v>-77.287199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>26356.383113</v>
@@ -3912,58 +4328,58 @@
         <v>7.321218</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.885000</v>
+        <v>965.88499999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.882700</v>
+        <v>-74.8827</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>26367.453354</v>
+        <v>26367.453354000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.324293</v>
+        <v>7.3242929999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.056000</v>
+        <v>973.05600000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.373700</v>
+        <v>-79.373699999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>26378.235852</v>
+        <v>26378.235852000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.327288</v>
+        <v>7.3272880000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.038000</v>
+        <v>981.03800000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.790700</v>
+        <v>-90.790700000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>26388.939023</v>
+        <v>26388.939022999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.330261</v>
+        <v>7.3302610000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.808000</v>
+        <v>990.80799999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.305000</v>
+        <v>-108.30500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>26399.964096</v>
@@ -3972,452 +4388,452 @@
         <v>7.333323</v>
       </c>
       <c r="BA15" s="1">
-        <v>998.969000</v>
+        <v>998.96900000000005</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>26410.972304</v>
+        <v>26410.972303999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.336381</v>
+        <v>7.3363810000000003</v>
       </c>
       <c r="BF15" s="1">
-        <v>1037.350000</v>
+        <v>1037.3499999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.471000</v>
+        <v>-195.471</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>26421.497411</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.339305</v>
+        <v>7.3393050000000004</v>
       </c>
       <c r="BK15" s="1">
-        <v>1103.690000</v>
+        <v>1103.69</v>
       </c>
       <c r="BL15" s="1">
-        <v>-311.778000</v>
+        <v>-311.77800000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>26431.878016</v>
+        <v>26431.878015999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.342188</v>
+        <v>7.3421880000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1211.620000</v>
+        <v>1211.6199999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-494.858000</v>
+        <v>-494.858</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>26442.875480</v>
+        <v>26442.875479999999</v>
       </c>
       <c r="BT15" s="1">
         <v>7.345243</v>
       </c>
       <c r="BU15" s="1">
-        <v>1333.160000</v>
+        <v>1333.16</v>
       </c>
       <c r="BV15" s="1">
-        <v>-695.432000</v>
+        <v>-695.43200000000002</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>26453.737368</v>
+        <v>26453.737367999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.348260</v>
+        <v>7.3482599999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1468.780000</v>
+        <v>1468.78</v>
       </c>
       <c r="CA15" s="1">
-        <v>-909.492000</v>
+        <v>-909.49199999999996</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>26465.975160</v>
+        <v>26465.975160000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>7.351660</v>
+        <v>7.3516599999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1824.420000</v>
+        <v>1824.42</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1417.700000</v>
+        <v>-1417.7</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>26292.783597</v>
+        <v>26292.783597000001</v>
       </c>
       <c r="B16" s="1">
-        <v>7.303551</v>
+        <v>7.3035509999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>899.209000</v>
+        <v>899.20899999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-203.148000</v>
+        <v>-203.148</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>26303.547280</v>
+        <v>26303.547279999999</v>
       </c>
       <c r="G16" s="1">
-        <v>7.306541</v>
+        <v>7.3065410000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>917.390000</v>
+        <v>917.39</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.697000</v>
+        <v>-171.697</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>26314.048576</v>
+        <v>26314.048576000001</v>
       </c>
       <c r="L16" s="1">
-        <v>7.309458</v>
+        <v>7.3094580000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>940.928000</v>
+        <v>940.928</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.450000</v>
+        <v>-121.45</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>26324.942212</v>
+        <v>26324.942212000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.312484</v>
+        <v>7.3124840000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>947.636000</v>
+        <v>947.63599999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.809000</v>
+        <v>-104.809</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>26335.438085</v>
+        <v>26335.438085000002</v>
       </c>
       <c r="V16" s="1">
-        <v>7.315399</v>
+        <v>7.3153990000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>954.169000</v>
+        <v>954.16899999999998</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.398700</v>
+        <v>-89.398700000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>26346.623335</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.318506</v>
+        <v>7.3185060000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.335000</v>
+        <v>961.33500000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.295700</v>
+        <v>-77.295699999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>26357.033864</v>
+        <v>26357.033864000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.321398</v>
+        <v>7.3213980000000003</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.915000</v>
+        <v>965.91499999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.920800</v>
+        <v>-74.9208</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>26367.835776</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.324399</v>
+        <v>7.3243989999999997</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.019000</v>
+        <v>973.01900000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.398400</v>
+        <v>-79.398399999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>26378.645579</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.327402</v>
+        <v>7.3274020000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>981.030000</v>
+        <v>981.03</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.784800</v>
+        <v>-90.784800000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>26389.304077</v>
+        <v>26389.304077000001</v>
       </c>
       <c r="AU16" s="1">
         <v>7.330362</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.838000</v>
+        <v>990.83799999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.292000</v>
+        <v>-108.292</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>26400.342543</v>
+        <v>26400.342542999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.333428</v>
+        <v>7.3334279999999996</v>
       </c>
       <c r="BA16" s="1">
-        <v>998.993000</v>
+        <v>998.99300000000005</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>26411.335904</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.336482</v>
+        <v>7.3364820000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1037.350000</v>
+        <v>1037.3499999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.479000</v>
+        <v>-195.47900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>26421.873378</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.339409</v>
+        <v>7.3394089999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1103.710000</v>
+        <v>1103.71</v>
       </c>
       <c r="BL16" s="1">
-        <v>-311.781000</v>
+        <v>-311.78100000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>26432.299284</v>
+        <v>26432.299284000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.342305</v>
+        <v>7.3423049999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1211.650000</v>
+        <v>1211.6500000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-494.840000</v>
+        <v>-494.84</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>26443.323899</v>
+        <v>26443.323898999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.345368</v>
+        <v>7.3453679999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1333.190000</v>
+        <v>1333.19</v>
       </c>
       <c r="BV16" s="1">
-        <v>-695.366000</v>
+        <v>-695.36599999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>26454.185256</v>
+        <v>26454.185256000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.348385</v>
+        <v>7.3483850000000004</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1468.760000</v>
+        <v>1468.76</v>
       </c>
       <c r="CA16" s="1">
-        <v>-909.521000</v>
+        <v>-909.52099999999996</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>26466.517817</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.351811</v>
+        <v>7.3518109999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>1825.250000</v>
+        <v>1825.25</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1416.520000</v>
+        <v>-1416.52</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>26293.124846</v>
+        <v>26293.124845999999</v>
       </c>
       <c r="B17" s="1">
-        <v>7.303646</v>
+        <v>7.3036459999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>899.153000</v>
+        <v>899.15300000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-203.384000</v>
+        <v>-203.38399999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>26303.891998</v>
+        <v>26303.891997999999</v>
       </c>
       <c r="G17" s="1">
-        <v>7.306637</v>
+        <v>7.3066370000000003</v>
       </c>
       <c r="H17" s="1">
-        <v>917.256000</v>
+        <v>917.25599999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.726000</v>
+        <v>-171.726</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>26314.395313</v>
+        <v>26314.395313000001</v>
       </c>
       <c r="L17" s="1">
-        <v>7.309554</v>
+        <v>7.3095540000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>940.858000</v>
+        <v>940.85799999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.536000</v>
+        <v>-121.536</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>26325.597426</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.312666</v>
+        <v>7.3126660000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>947.629000</v>
+        <v>947.62900000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.770000</v>
+        <v>-104.77</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>26336.084836</v>
+        <v>26336.084836000002</v>
       </c>
       <c r="V17" s="1">
-        <v>7.315579</v>
+        <v>7.3155789999999996</v>
       </c>
       <c r="W17" s="1">
-        <v>954.211000</v>
+        <v>954.21100000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.324700</v>
+        <v>-89.324700000000007</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>26347.012693</v>
+        <v>26347.012693000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.318615</v>
+        <v>7.3186150000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.263000</v>
+        <v>961.26300000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.269000</v>
+        <v>-77.269000000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>26357.414792</v>
@@ -4426,118 +4842,118 @@
         <v>7.321504</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.907000</v>
+        <v>965.90700000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.905100</v>
+        <v>-74.905100000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>26368.186409</v>
+        <v>26368.186409000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.324496</v>
+        <v>7.3244959999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.027000</v>
+        <v>973.02700000000004</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.387500</v>
+        <v>-79.387500000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>26379.030939</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.327509</v>
+        <v>7.3275090000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>981.040000</v>
+        <v>981.04</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.794000</v>
+        <v>-90.793999999999997</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>26389.669662</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.330464</v>
+        <v>7.3304640000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.782000</v>
+        <v>990.78200000000004</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.288000</v>
+        <v>-108.288</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>26400.702143</v>
+        <v>26400.702142999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.333528</v>
+        <v>7.3335280000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>998.989000</v>
+        <v>998.98900000000003</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.837000</v>
+        <v>-123.837</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>26411.757968</v>
+        <v>26411.757968000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.336599</v>
+        <v>7.3365989999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1037.360000</v>
+        <v>1037.3599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.489000</v>
+        <v>-195.489</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>26422.288040</v>
+        <v>26422.288039999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.339524</v>
+        <v>7.3395239999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1103.730000</v>
+        <v>1103.73</v>
       </c>
       <c r="BL17" s="1">
-        <v>-311.770000</v>
+        <v>-311.77</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>26432.694831</v>
+        <v>26432.694831000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.342415</v>
+        <v>7.3424149999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1211.640000</v>
+        <v>1211.6400000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-494.827000</v>
+        <v>-494.827</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>26443.720663</v>
@@ -4546,634 +4962,634 @@
         <v>7.345478</v>
       </c>
       <c r="BU17" s="1">
-        <v>1333.230000</v>
+        <v>1333.23</v>
       </c>
       <c r="BV17" s="1">
-        <v>-695.361000</v>
+        <v>-695.36099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>26454.617271</v>
+        <v>26454.617270999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.348505</v>
+        <v>7.3485050000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1468.660000</v>
+        <v>1468.66</v>
       </c>
       <c r="CA17" s="1">
-        <v>-909.355000</v>
+        <v>-909.35500000000002</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>26467.056438</v>
       </c>
       <c r="CD17" s="1">
-        <v>7.351960</v>
+        <v>7.3519600000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1823.700000</v>
+        <v>1823.7</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1417.110000</v>
+        <v>-1417.11</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>26293.468077</v>
+        <v>26293.468077000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.303741</v>
+        <v>7.3037409999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>899.125000</v>
+        <v>899.125</v>
       </c>
       <c r="D18" s="1">
-        <v>-203.051000</v>
+        <v>-203.05099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>26304.534814</v>
+        <v>26304.534813999999</v>
       </c>
       <c r="G18" s="1">
-        <v>7.306815</v>
+        <v>7.3068150000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>917.476000</v>
+        <v>917.476</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.898000</v>
+        <v>-171.898</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>26315.044049</v>
       </c>
       <c r="L18" s="1">
-        <v>7.309734</v>
+        <v>7.3097339999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>940.878000</v>
+        <v>940.87800000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.704000</v>
+        <v>-121.70399999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>26325.987777</v>
+        <v>26325.987776999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>7.312774</v>
+        <v>7.3127740000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>947.686000</v>
+        <v>947.68600000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.806000</v>
+        <v>-104.806</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>26336.470723</v>
+        <v>26336.470722999999</v>
       </c>
       <c r="V18" s="1">
-        <v>7.315686</v>
+        <v>7.3156860000000004</v>
       </c>
       <c r="W18" s="1">
-        <v>954.166000</v>
+        <v>954.16600000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.282500</v>
+        <v>-89.282499999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>26347.362870</v>
+        <v>26347.362870000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>7.318712</v>
+        <v>7.3187119999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.351000</v>
+        <v>961.351</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.241600</v>
+        <v>-77.241600000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>26357.757058</v>
+        <v>26357.757057999999</v>
       </c>
       <c r="AF18" s="1">
         <v>7.321599</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.949000</v>
+        <v>965.94899999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.869700</v>
+        <v>-74.869699999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>26368.534602</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.324593</v>
+        <v>7.3245930000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.023000</v>
+        <v>973.02300000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.387200</v>
+        <v>-79.387200000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>26379.387564</v>
+        <v>26379.387564000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.327608</v>
+        <v>7.3276079999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.034000</v>
+        <v>981.03399999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.796900</v>
+        <v>-90.796899999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>26390.084813</v>
+        <v>26390.084813000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.330579</v>
+        <v>7.3305790000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.801000</v>
+        <v>990.80100000000004</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.300000</v>
+        <v>-108.3</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>26401.122750</v>
+        <v>26401.122749999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.333645</v>
+        <v>7.3336449999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>998.993000</v>
+        <v>998.99300000000005</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.864000</v>
+        <v>-123.864</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>26412.058082</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.336683</v>
+        <v>7.3366829999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1037.350000</v>
+        <v>1037.3499999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.488000</v>
+        <v>-195.488</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>26422.648626</v>
+        <v>26422.648625999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.339625</v>
+        <v>7.3396249999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1103.710000</v>
+        <v>1103.71</v>
       </c>
       <c r="BL18" s="1">
-        <v>-311.781000</v>
+        <v>-311.78100000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>26433.115204</v>
+        <v>26433.115204000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.342532</v>
+        <v>7.3425320000000003</v>
       </c>
       <c r="BP18" s="1">
-        <v>1211.670000</v>
+        <v>1211.67</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-494.853000</v>
+        <v>-494.85300000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>26444.150198</v>
+        <v>26444.150197999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.345597</v>
+        <v>7.3455969999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1333.300000</v>
+        <v>1333.3</v>
       </c>
       <c r="BV18" s="1">
-        <v>-695.486000</v>
+        <v>-695.48599999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>26455.038870</v>
+        <v>26455.03887</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.348622</v>
+        <v>7.3486219999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1468.700000</v>
+        <v>1468.7</v>
       </c>
       <c r="CA18" s="1">
-        <v>-909.509000</v>
+        <v>-909.50900000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>26467.596582</v>
+        <v>26467.596581999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.352110</v>
+        <v>7.3521099999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>1825.420000</v>
+        <v>1825.42</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1417.240000</v>
+        <v>-1417.24</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>26294.123820</v>
+        <v>26294.123820000001</v>
       </c>
       <c r="B19" s="1">
-        <v>7.303923</v>
+        <v>7.3039230000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>899.353000</v>
+        <v>899.35299999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-203.258000</v>
+        <v>-203.25800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>26304.925662</v>
+        <v>26304.925662000001</v>
       </c>
       <c r="G19" s="1">
-        <v>7.306924</v>
+        <v>7.3069240000000004</v>
       </c>
       <c r="H19" s="1">
-        <v>917.652000</v>
+        <v>917.65200000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.793000</v>
+        <v>-171.79300000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>26315.430431</v>
+        <v>26315.430431000001</v>
       </c>
       <c r="L19" s="1">
-        <v>7.309842</v>
+        <v>7.3098419999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>940.982000</v>
+        <v>940.98199999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.481000</v>
+        <v>-121.48099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>26326.335505</v>
+        <v>26326.335504999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.312871</v>
+        <v>7.3128710000000003</v>
       </c>
       <c r="R19" s="1">
-        <v>947.638000</v>
+        <v>947.63800000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.807000</v>
+        <v>-104.807</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>26336.813956</v>
+        <v>26336.813956000002</v>
       </c>
       <c r="V19" s="1">
-        <v>7.315782</v>
+        <v>7.3157819999999996</v>
       </c>
       <c r="W19" s="1">
-        <v>954.155000</v>
+        <v>954.15499999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.312700</v>
+        <v>-89.312700000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>26347.710564</v>
+        <v>26347.710564000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.318808</v>
+        <v>7.3188079999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.243000</v>
+        <v>961.24300000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.297500</v>
+        <v>-77.297499999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>26358.102247</v>
+        <v>26358.102246999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>7.321695</v>
+        <v>7.3216950000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.917000</v>
+        <v>965.91700000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.892600</v>
+        <v>-74.892600000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>26368.956200</v>
+        <v>26368.956200000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.324710</v>
+        <v>7.3247099999999996</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.022000</v>
+        <v>973.02200000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.381400</v>
+        <v>-79.381399999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>26379.802747</v>
+        <v>26379.802747000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.327723</v>
+        <v>7.3277229999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>981.026000</v>
+        <v>981.02599999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.795200</v>
+        <v>-90.795199999999994</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>26390.398252</v>
+        <v>26390.398251999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.330666</v>
+        <v>7.3306659999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.779000</v>
+        <v>990.779</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.325000</v>
+        <v>-108.325</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>26401.417902</v>
+        <v>26401.417902000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.333727</v>
+        <v>7.3337269999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>998.998000</v>
+        <v>998.99800000000005</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.872000</v>
+        <v>-123.872</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>26412.420128</v>
+        <v>26412.420128000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.336783</v>
+        <v>7.3367829999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1037.320000</v>
+        <v>1037.32</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.506000</v>
+        <v>-195.506</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>26423.024134</v>
+        <v>26423.024133999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.339729</v>
+        <v>7.3397290000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1103.740000</v>
+        <v>1103.74</v>
       </c>
       <c r="BL19" s="1">
-        <v>-311.757000</v>
+        <v>-311.75700000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>26433.512499</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.342642</v>
+        <v>7.3426419999999997</v>
       </c>
       <c r="BP19" s="1">
-        <v>1211.640000</v>
+        <v>1211.6400000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-494.887000</v>
+        <v>-494.887</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>26444.580230</v>
+        <v>26444.58023</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.345717</v>
+        <v>7.3457169999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1333.220000</v>
+        <v>1333.22</v>
       </c>
       <c r="BV19" s="1">
-        <v>-695.541000</v>
+        <v>-695.54100000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>26455.459974</v>
+        <v>26455.459974000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.348739</v>
+        <v>7.3487390000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1468.710000</v>
+        <v>1468.71</v>
       </c>
       <c r="CA19" s="1">
-        <v>-909.467000</v>
+        <v>-909.46699999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>26468.138709</v>
+        <v>26468.138708999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.352261</v>
+        <v>7.3522610000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>1824.330000</v>
+        <v>1824.33</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1416.390000</v>
+        <v>-1416.39</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>26294.491323</v>
+        <v>26294.491322999998</v>
       </c>
       <c r="B20" s="1">
-        <v>7.304025</v>
+        <v>7.3040250000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>899.099000</v>
+        <v>899.09900000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-203.448000</v>
+        <v>-203.44800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>26305.272749</v>
       </c>
       <c r="G20" s="1">
-        <v>7.307020</v>
+        <v>7.3070199999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>917.563000</v>
+        <v>917.56299999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.712000</v>
+        <v>-171.71199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>26315.777663</v>
+        <v>26315.777663000001</v>
       </c>
       <c r="L20" s="1">
-        <v>7.309938</v>
+        <v>7.3099379999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>940.786000</v>
+        <v>940.78599999999994</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.535000</v>
+        <v>-121.535</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>26326.685648</v>
+        <v>26326.685647999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.312968</v>
+        <v>7.3129679999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>947.614000</v>
+        <v>947.61400000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.820000</v>
+        <v>-104.82</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>26337.164162</v>
+        <v>26337.164162000001</v>
       </c>
       <c r="V20" s="1">
-        <v>7.315879</v>
+        <v>7.3158789999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>954.249000</v>
+        <v>954.24900000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.308800</v>
+        <v>-89.308800000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>26348.126708</v>
@@ -5182,405 +5598,405 @@
         <v>7.318924</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.053000</v>
+        <v>961.053</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.330500</v>
+        <v>-77.330500000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>26358.515446</v>
+        <v>26358.515446000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>7.321810</v>
+        <v>7.3218100000000002</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.940000</v>
+        <v>965.94</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.929000</v>
+        <v>-74.929000000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>26369.242888</v>
+        <v>26369.242888000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.324790</v>
+        <v>7.3247900000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.035000</v>
+        <v>973.03499999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.378900</v>
+        <v>-79.378900000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>26380.108251</v>
+        <v>26380.108251000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.327808</v>
+        <v>7.3278080000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>981.038000</v>
+        <v>981.03800000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.781300</v>
+        <v>-90.781300000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>26390.762812</v>
+        <v>26390.762812000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.330767</v>
+        <v>7.3307669999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.800000</v>
+        <v>990.8</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.318000</v>
+        <v>-108.318</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>26401.774530</v>
+        <v>26401.774529999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.333826</v>
+        <v>7.3338260000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.006000</v>
+        <v>999.00599999999997</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.848000</v>
+        <v>-123.848</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>26412.780035</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.336883</v>
+        <v>7.3368830000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1037.350000</v>
+        <v>1037.3499999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.479000</v>
+        <v>-195.47900000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>26423.397627</v>
+        <v>26423.397626999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.339833</v>
+        <v>7.3398329999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1103.730000</v>
+        <v>1103.73</v>
       </c>
       <c r="BL20" s="1">
-        <v>-311.764000</v>
+        <v>-311.76400000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>26433.933602</v>
+        <v>26433.933602000001</v>
       </c>
       <c r="BO20" s="1">
         <v>7.342759</v>
       </c>
       <c r="BP20" s="1">
-        <v>1211.650000</v>
+        <v>1211.6500000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-494.865000</v>
+        <v>-494.86500000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>26444.990916</v>
+        <v>26444.990915999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.345831</v>
+        <v>7.3458310000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>1333.350000</v>
+        <v>1333.35</v>
       </c>
       <c r="BV20" s="1">
-        <v>-695.553000</v>
+        <v>-695.553</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>26455.887558</v>
+        <v>26455.887557999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.348858</v>
+        <v>7.3488579999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1468.720000</v>
+        <v>1468.72</v>
       </c>
       <c r="CA20" s="1">
-        <v>-909.474000</v>
+        <v>-909.47400000000005</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>26468.677398</v>
       </c>
       <c r="CD20" s="1">
-        <v>7.352410</v>
+        <v>7.3524099999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1824.120000</v>
+        <v>1824.12</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1417.580000</v>
+        <v>-1417.58</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>26294.836042</v>
+        <v>26294.836041999999</v>
       </c>
       <c r="B21" s="1">
-        <v>7.304121</v>
+        <v>7.3041210000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>899.214000</v>
+        <v>899.21400000000006</v>
       </c>
       <c r="D21" s="1">
-        <v>-203.169000</v>
+        <v>-203.16900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>26305.616588</v>
+        <v>26305.616588000001</v>
       </c>
       <c r="G21" s="1">
-        <v>7.307116</v>
+        <v>7.3071159999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>917.624000</v>
+        <v>917.62400000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.700000</v>
+        <v>-171.7</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>26316.124334</v>
       </c>
       <c r="L21" s="1">
-        <v>7.310035</v>
+        <v>7.3100350000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>940.852000</v>
+        <v>940.85199999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.620000</v>
+        <v>-121.62</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>26327.095840</v>
+        <v>26327.095840000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.313082</v>
+        <v>7.3130819999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>947.635000</v>
+        <v>947.63499999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.793000</v>
+        <v>-104.79300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>26337.586535</v>
+        <v>26337.586534999999</v>
       </c>
       <c r="V21" s="1">
-        <v>7.315996</v>
+        <v>7.3159960000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>954.220000</v>
+        <v>954.22</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.384900</v>
+        <v>-89.384900000000002</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>26348.407477</v>
+        <v>26348.407477000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.319002</v>
+        <v>7.3190020000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.223000</v>
+        <v>961.22299999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.336100</v>
+        <v>-77.336100000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>26358.813543</v>
       </c>
       <c r="AF21" s="1">
-        <v>7.321893</v>
+        <v>7.3218930000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.912000</v>
+        <v>965.91200000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.904400</v>
+        <v>-74.904399999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>26369.589592</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.324886</v>
+        <v>7.3248860000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.025000</v>
+        <v>973.02499999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.374500</v>
+        <v>-79.374499999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>26380.469337</v>
+        <v>26380.469336999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>7.327908</v>
+        <v>7.3279079999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.044000</v>
+        <v>981.04399999999998</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.800100</v>
+        <v>-90.8001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>26391.127867</v>
+        <v>26391.127866999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.330869</v>
+        <v>7.3308689999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.796000</v>
+        <v>990.79600000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.312000</v>
+        <v>-108.312</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>26402.138099</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.333927</v>
+        <v>7.3339270000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>998.988000</v>
+        <v>998.98800000000006</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>26413.502398</v>
+        <v>26413.502398000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.337084</v>
+        <v>7.3370839999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1037.360000</v>
+        <v>1037.3599999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.510000</v>
+        <v>-195.51</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>26424.197664</v>
+        <v>26424.197663999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.340055</v>
+        <v>7.3400550000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1103.700000</v>
+        <v>1103.7</v>
       </c>
       <c r="BL21" s="1">
-        <v>-311.774000</v>
+        <v>-311.774</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>26434.329938</v>
+        <v>26434.329937999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.342869</v>
+        <v>7.3428690000000003</v>
       </c>
       <c r="BP21" s="1">
-        <v>1211.650000</v>
+        <v>1211.6500000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-494.896000</v>
+        <v>-494.89600000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>26445.423923</v>
+        <v>26445.423922999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.345951</v>
+        <v>7.3459510000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1333.300000</v>
+        <v>1333.3</v>
       </c>
       <c r="BV21" s="1">
-        <v>-695.653000</v>
+        <v>-695.65300000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>26456.302677</v>
@@ -5589,60 +6005,60 @@
         <v>7.348973</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1468.700000</v>
+        <v>1468.7</v>
       </c>
       <c r="CA21" s="1">
-        <v>-909.440000</v>
+        <v>-909.44</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>26469.531010</v>
+        <v>26469.531009999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.352648</v>
+        <v>7.3526480000000003</v>
       </c>
       <c r="CE21" s="1">
-        <v>1824.250000</v>
+        <v>1824.25</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1416.230000</v>
+        <v>-1416.23</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>26295.178283</v>
+        <v>26295.178283000001</v>
       </c>
       <c r="B22" s="1">
-        <v>7.304216</v>
+        <v>7.3042160000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>899.247000</v>
+        <v>899.24699999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-203.345000</v>
+        <v>-203.345</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>26306.045163</v>
+        <v>26306.045162999999</v>
       </c>
       <c r="G22" s="1">
-        <v>7.307235</v>
+        <v>7.3072350000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>917.296000</v>
+        <v>917.29600000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.628000</v>
+        <v>-171.62799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>26316.537998</v>
@@ -5651,1253 +6067,1254 @@
         <v>7.310149</v>
       </c>
       <c r="M22" s="1">
-        <v>940.789000</v>
+        <v>940.78899999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.490000</v>
+        <v>-121.49</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>26327.383023</v>
+        <v>26327.383022999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.313162</v>
+        <v>7.3131620000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>947.612000</v>
+        <v>947.61199999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.771000</v>
+        <v>-104.771</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>26337.866001</v>
+        <v>26337.866000999999</v>
       </c>
       <c r="V22" s="1">
-        <v>7.316074</v>
+        <v>7.3160740000000004</v>
       </c>
       <c r="W22" s="1">
-        <v>954.244000</v>
+        <v>954.24400000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.325400</v>
+        <v>-89.325400000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>26348.755139</v>
+        <v>26348.755139000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.319099</v>
+        <v>7.3190989999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.340000</v>
+        <v>961.34</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.339900</v>
+        <v>-77.3399</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>26359.158725</v>
+        <v>26359.158725000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.321989</v>
+        <v>7.3219890000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.904000</v>
+        <v>965.904</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.896000</v>
+        <v>-74.896000000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>26369.940792</v>
+        <v>26369.940792000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.324984</v>
+        <v>7.3249839999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.029000</v>
+        <v>973.029</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.359700</v>
+        <v>-79.359700000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>26380.829464</v>
+        <v>26380.829463999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.328008</v>
+        <v>7.3280079999999996</v>
       </c>
       <c r="AQ22" s="1">
-        <v>981.023000</v>
+        <v>981.02300000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.785800</v>
+        <v>-90.785799999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>26391.853018</v>
+        <v>26391.853018000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.331070</v>
+        <v>7.3310700000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.810000</v>
+        <v>990.81</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.300000</v>
+        <v>-108.3</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>26402.862221</v>
+        <v>26402.862220999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>7.334128</v>
+        <v>7.3341279999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>998.972000</v>
+        <v>998.97199999999998</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.837000</v>
+        <v>-123.837</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>26413.892749</v>
+        <v>26413.892748999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.337192</v>
+        <v>7.3371919999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1037.330000</v>
+        <v>1037.33</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.497000</v>
+        <v>-195.49700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>26424.549802</v>
+        <v>26424.549802000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.340153</v>
+        <v>7.3401529999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1103.730000</v>
+        <v>1103.73</v>
       </c>
       <c r="BL22" s="1">
-        <v>-311.782000</v>
+        <v>-311.78199999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>26434.752001</v>
+        <v>26434.752001000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.342987</v>
+        <v>7.3429869999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1211.640000</v>
+        <v>1211.6400000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-494.886000</v>
+        <v>-494.88600000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>26446.154530</v>
+        <v>26446.15453</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.346154</v>
+        <v>7.3461540000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1333.300000</v>
+        <v>1333.3</v>
       </c>
       <c r="BV22" s="1">
-        <v>-695.739000</v>
+        <v>-695.73900000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>26457.060075</v>
+        <v>26457.060075000001</v>
       </c>
       <c r="BY22" s="1">
         <v>7.349183</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1468.710000</v>
+        <v>1468.71</v>
       </c>
       <c r="CA22" s="1">
-        <v>-909.613000</v>
+        <v>-909.61300000000006</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>26469.756660</v>
+        <v>26469.756659999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.352710</v>
+        <v>7.3527100000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1824.000000</v>
+        <v>1824</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1416.220000</v>
+        <v>-1416.22</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>26295.596905</v>
+        <v>26295.596904999999</v>
       </c>
       <c r="B23" s="1">
-        <v>7.304332</v>
+        <v>7.3043319999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>899.116000</v>
+        <v>899.11599999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-203.063000</v>
+        <v>-203.06299999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>26306.319453</v>
       </c>
       <c r="G23" s="1">
-        <v>7.307311</v>
+        <v>7.3073110000000003</v>
       </c>
       <c r="H23" s="1">
-        <v>917.339000</v>
+        <v>917.33900000000006</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.853000</v>
+        <v>-171.85300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>26316.836589</v>
+        <v>26316.836588999999</v>
       </c>
       <c r="L23" s="1">
-        <v>7.310232</v>
+        <v>7.3102320000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>940.996000</v>
+        <v>940.99599999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.480000</v>
+        <v>-121.48</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>26327.737663</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.313260</v>
+        <v>7.3132599999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>947.654000</v>
+        <v>947.654</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.772000</v>
+        <v>-104.77200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>26338.209201</v>
+        <v>26338.209201000001</v>
       </c>
       <c r="V23" s="1">
-        <v>7.316169</v>
+        <v>7.3161690000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>954.203000</v>
+        <v>954.20299999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.389500</v>
+        <v>-89.389499999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>26349.102127</v>
+        <v>26349.102126999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.319195</v>
+        <v>7.3191949999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.275000</v>
+        <v>961.27499999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.317000</v>
+        <v>-77.316999999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>26359.500469</v>
+        <v>26359.500468999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>7.322083</v>
+        <v>7.3220830000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.902000</v>
+        <v>965.90200000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.921400</v>
+        <v>-74.921400000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>26370.633482</v>
+        <v>26370.633482000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.325176</v>
+        <v>7.3251759999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.011000</v>
+        <v>973.01099999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.412300</v>
+        <v>-79.412300000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>26381.548632</v>
+        <v>26381.548632000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.328208</v>
+        <v>7.3282080000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.065000</v>
+        <v>981.06500000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.771500</v>
+        <v>-90.771500000000003</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>26392.247338</v>
+        <v>26392.247338000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.331180</v>
+        <v>7.3311799999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.789000</v>
+        <v>990.78899999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.330000</v>
+        <v>-108.33</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>26403.827962</v>
+        <v>26403.827961999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.334397</v>
+        <v>7.3343970000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>998.996000</v>
+        <v>998.99599999999998</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.836000</v>
+        <v>-123.836</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>26414.251390</v>
+        <v>26414.251390000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.337292</v>
+        <v>7.3372919999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1037.330000</v>
+        <v>1037.33</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.484000</v>
+        <v>-195.48400000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>26425.226366</v>
+        <v>26425.226365999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.340341</v>
+        <v>7.3403409999999996</v>
       </c>
       <c r="BK23" s="1">
-        <v>1103.720000</v>
+        <v>1103.72</v>
       </c>
       <c r="BL23" s="1">
-        <v>-311.777000</v>
+        <v>-311.77699999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>26435.454833</v>
       </c>
       <c r="BO23" s="1">
-        <v>7.343182</v>
+        <v>7.3431819999999997</v>
       </c>
       <c r="BP23" s="1">
-        <v>1211.650000</v>
+        <v>1211.6500000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-494.856000</v>
+        <v>-494.85599999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>26446.296883</v>
+        <v>26446.296882999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>7.346194</v>
+        <v>7.3461939999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1333.370000</v>
+        <v>1333.37</v>
       </c>
       <c r="BV23" s="1">
-        <v>-695.736000</v>
+        <v>-695.73599999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>26457.196468</v>
+        <v>26457.196467999998</v>
       </c>
       <c r="BY23" s="1">
         <v>7.349221</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1468.800000</v>
+        <v>1468.8</v>
       </c>
       <c r="CA23" s="1">
-        <v>-909.571000</v>
+        <v>-909.57100000000003</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>26470.273491</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.352854</v>
+        <v>7.3528539999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1823.970000</v>
+        <v>1823.97</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1417.540000</v>
+        <v>-1417.54</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>26295.876184</v>
+        <v>26295.876184000001</v>
       </c>
       <c r="B24" s="1">
-        <v>7.304410</v>
+        <v>7.3044099999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>899.238000</v>
+        <v>899.23800000000006</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.972000</v>
+        <v>-202.97200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>26306.664635</v>
+        <v>26306.664635000001</v>
       </c>
       <c r="G24" s="1">
-        <v>7.307407</v>
+        <v>7.3074070000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>917.635000</v>
+        <v>917.63499999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.677000</v>
+        <v>-171.67699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>26317.180813</v>
+        <v>26317.180812999999</v>
       </c>
       <c r="L24" s="1">
-        <v>7.310328</v>
+        <v>7.3103280000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>940.972000</v>
+        <v>940.97199999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.640000</v>
+        <v>-121.64</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>26328.083902</v>
+        <v>26328.083901999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>7.313357</v>
+        <v>7.3133569999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>947.663000</v>
+        <v>947.66300000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.834000</v>
+        <v>-104.834</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>26338.553117</v>
+        <v>26338.553116999999</v>
       </c>
       <c r="V24" s="1">
-        <v>7.316265</v>
+        <v>7.3162649999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>954.177000</v>
+        <v>954.17700000000002</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.341300</v>
+        <v>-89.341300000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>26349.800705</v>
+        <v>26349.800705000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.319389</v>
+        <v>7.3193890000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.278000</v>
+        <v>961.27800000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.281300</v>
+        <v>-77.281300000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>26360.186436</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.322274</v>
+        <v>7.3222740000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.930000</v>
+        <v>965.93</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.870900</v>
+        <v>-74.870900000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>26370.986326</v>
+        <v>26370.986325999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.325274</v>
+        <v>7.3252740000000003</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.035000</v>
+        <v>973.03499999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.381400</v>
+        <v>-79.381399999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>26381.929063</v>
       </c>
       <c r="AP24" s="1">
-        <v>7.328314</v>
+        <v>7.3283139999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.010000</v>
+        <v>981.01</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.795000</v>
+        <v>-90.795000000000002</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>26392.610905</v>
+        <v>26392.610905000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.331281</v>
+        <v>7.3312809999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.782000</v>
+        <v>990.78200000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.310000</v>
+        <v>-108.31</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>26403.974746</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.334437</v>
+        <v>7.3344370000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>998.974000</v>
+        <v>998.97400000000005</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>26414.912897</v>
+        <v>26414.912896999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.337476</v>
+        <v>7.3374759999999997</v>
       </c>
       <c r="BF24" s="1">
-        <v>1037.360000</v>
+        <v>1037.3599999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.474000</v>
+        <v>-195.47399999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>26425.335455</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.340371</v>
+        <v>7.3403710000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1103.690000</v>
+        <v>1103.69</v>
       </c>
       <c r="BL24" s="1">
-        <v>-311.782000</v>
+        <v>-311.78199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>26435.569408</v>
+        <v>26435.569407999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.343214</v>
+        <v>7.3432139999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1211.660000</v>
+        <v>1211.6600000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-494.843000</v>
+        <v>-494.84300000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>26446.709556</v>
+        <v>26446.709556000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.346308</v>
+        <v>7.3463079999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>1333.210000</v>
+        <v>1333.21</v>
       </c>
       <c r="BV24" s="1">
-        <v>-695.838000</v>
+        <v>-695.83799999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>26457.625507</v>
+        <v>26457.625507000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.349340</v>
+        <v>7.3493399999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="CA24" s="1">
-        <v>-909.392000</v>
+        <v>-909.39200000000005</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>26470.793298</v>
+        <v>26470.793298000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.352998</v>
+        <v>7.3529980000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>1823.920000</v>
+        <v>1823.92</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1417.270000</v>
+        <v>-1417.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>26296.220376</v>
+        <v>26296.220376000001</v>
       </c>
       <c r="B25" s="1">
-        <v>7.304506</v>
+        <v>7.3045059999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>899.153000</v>
+        <v>899.15300000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-203.178000</v>
+        <v>-203.178</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>26307.008890</v>
+        <v>26307.008890000001</v>
       </c>
       <c r="G25" s="1">
-        <v>7.307502</v>
+        <v>7.3075020000000004</v>
       </c>
       <c r="H25" s="1">
-        <v>917.561000</v>
+        <v>917.56100000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.666000</v>
+        <v>-171.666</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>26317.528044</v>
+        <v>26317.528043999999</v>
       </c>
       <c r="L25" s="1">
-        <v>7.310424</v>
+        <v>7.3104240000000003</v>
       </c>
       <c r="M25" s="1">
-        <v>940.797000</v>
+        <v>940.79700000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.543000</v>
+        <v>-121.54300000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>26328.783757</v>
+        <v>26328.783757000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.313551</v>
+        <v>7.3135510000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>947.658000</v>
+        <v>947.65800000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.828000</v>
+        <v>-104.828</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>26339.241408</v>
+        <v>26339.241408000002</v>
       </c>
       <c r="V25" s="1">
-        <v>7.316456</v>
+        <v>7.3164559999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>954.234000</v>
+        <v>954.23400000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.371900</v>
+        <v>-89.371899999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>26350.147905</v>
+        <v>26350.147905000002</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.319486</v>
+        <v>7.3194860000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.298000</v>
+        <v>961.298</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.292000</v>
+        <v>-77.292000000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>26360.517268</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.322366</v>
+        <v>7.3223659999999997</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.907000</v>
+        <v>965.90700000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.907500</v>
+        <v>-74.907499999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>26371.334058</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.325371</v>
+        <v>7.3253709999999996</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.038000</v>
+        <v>973.03800000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.359700</v>
+        <v>-79.359700000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>26382.269816</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.328408</v>
+        <v>7.3284079999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>981.030000</v>
+        <v>981.03</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.783600</v>
+        <v>-90.783600000000007</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>26393.281000</v>
+        <v>26393.280999999999</v>
       </c>
       <c r="AU25" s="1">
         <v>7.331467</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.813000</v>
+        <v>990.81299999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.313000</v>
+        <v>-108.313</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>26404.492602</v>
+        <v>26404.492601999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>7.334581</v>
       </c>
       <c r="BA25" s="1">
-        <v>998.987000</v>
+        <v>998.98699999999997</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.833000</v>
+        <v>-123.833</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>26415.368382</v>
+        <v>26415.368382000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.337602</v>
+        <v>7.3376020000000004</v>
       </c>
       <c r="BF25" s="1">
-        <v>1037.340000</v>
+        <v>1037.3399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.497000</v>
+        <v>-195.49700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>26425.702989</v>
+        <v>26425.702989000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.340473</v>
+        <v>7.3404730000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1103.710000</v>
+        <v>1103.71</v>
       </c>
       <c r="BL25" s="1">
-        <v>-311.800000</v>
+        <v>-311.8</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>26435.992496</v>
+        <v>26435.992495999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>7.343331</v>
+        <v>7.3433310000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1211.630000</v>
+        <v>1211.6300000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-494.895000</v>
+        <v>-494.89499999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>26447.131154</v>
+        <v>26447.131153999999</v>
       </c>
       <c r="BT25" s="1">
         <v>7.346425</v>
       </c>
       <c r="BU25" s="1">
-        <v>1333.180000</v>
+        <v>1333.18</v>
       </c>
       <c r="BV25" s="1">
-        <v>-695.826000</v>
+        <v>-695.82600000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>26458.038178</v>
+        <v>26458.038177999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>7.349455</v>
+        <v>7.3494549999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1468.700000</v>
+        <v>1468.7</v>
       </c>
       <c r="CA25" s="1">
-        <v>-909.561000</v>
+        <v>-909.56100000000004</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>26471.344849</v>
+        <v>26471.344849000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.353151</v>
+        <v>7.3531510000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>1823.750000</v>
+        <v>1823.75</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1416.500000</v>
+        <v>-1416.5</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>26296.560632</v>
+        <v>26296.560632000001</v>
       </c>
       <c r="B26" s="1">
-        <v>7.304600</v>
+        <v>7.3045999999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>898.995000</v>
+        <v>898.995</v>
       </c>
       <c r="D26" s="1">
-        <v>-203.133000</v>
+        <v>-203.13300000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>26307.696841</v>
+        <v>26307.696841000001</v>
       </c>
       <c r="G26" s="1">
-        <v>7.307694</v>
+        <v>7.3076939999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>917.399000</v>
+        <v>917.399</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.938000</v>
+        <v>-171.93799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>26318.217483</v>
       </c>
       <c r="L26" s="1">
-        <v>7.310616</v>
+        <v>7.3106159999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>940.677000</v>
+        <v>940.67700000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.594000</v>
+        <v>-121.59399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>26329.132412</v>
+        <v>26329.132411999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.313648</v>
+        <v>7.3136479999999997</v>
       </c>
       <c r="R26" s="1">
-        <v>947.645000</v>
+        <v>947.64499999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.796000</v>
+        <v>-104.79600000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>26339.586351</v>
+        <v>26339.586351000002</v>
       </c>
       <c r="V26" s="1">
-        <v>7.316552</v>
+        <v>7.3165519999999997</v>
       </c>
       <c r="W26" s="1">
-        <v>954.186000</v>
+        <v>954.18600000000004</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.332100</v>
+        <v>-89.332099999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>26350.497089</v>
       </c>
       <c r="AA26" s="1">
-        <v>7.319583</v>
+        <v>7.3195829999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.189000</v>
+        <v>961.18899999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.361700</v>
+        <v>-77.361699999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>26360.873929</v>
+        <v>26360.873929000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.322465</v>
+        <v>7.3224650000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.884000</v>
+        <v>965.88400000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.912200</v>
+        <v>-74.912199999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>26371.992220</v>
+        <v>26371.99222</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.325553</v>
+        <v>7.3255530000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.001000</v>
+        <v>973.00099999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.358700</v>
+        <v>-79.358699999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>26382.721205</v>
+        <v>26382.721205000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.328534</v>
+        <v>7.3285340000000003</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.061000</v>
+        <v>981.06100000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.807100</v>
+        <v>-90.807100000000005</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>26393.705080</v>
+        <v>26393.70508</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.331585</v>
+        <v>7.3315849999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.798000</v>
+        <v>990.798</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.299000</v>
+        <v>-108.29900000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>26404.689518</v>
+        <v>26404.689517999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.334636</v>
+        <v>7.3346359999999997</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.976000</v>
+        <v>998.976</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.855000</v>
+        <v>-123.855</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>26415.732907</v>
+        <v>26415.732907000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>7.337704</v>
+        <v>7.3377039999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1037.330000</v>
+        <v>1037.33</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.485000</v>
+        <v>-195.48500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>26426.078734</v>
+        <v>26426.078733999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.340577</v>
+        <v>7.3405769999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1103.750000</v>
+        <v>1103.75</v>
       </c>
       <c r="BL26" s="1">
-        <v>-311.771000</v>
+        <v>-311.77100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>26436.391776</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.343442</v>
+        <v>7.3434419999999996</v>
       </c>
       <c r="BP26" s="1">
-        <v>1211.650000</v>
+        <v>1211.6500000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-494.874000</v>
+        <v>-494.87400000000002</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>26447.549314</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.346541</v>
+        <v>7.3465410000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1333.200000</v>
+        <v>1333.2</v>
       </c>
       <c r="BV26" s="1">
-        <v>-695.965000</v>
+        <v>-695.96500000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>26458.496482</v>
+        <v>26458.496481999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.349582</v>
+        <v>7.3495819999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1468.750000</v>
+        <v>1468.75</v>
       </c>
       <c r="CA26" s="1">
-        <v>-909.629000</v>
+        <v>-909.62900000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>26471.874080</v>
+        <v>26471.874080000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.353298</v>
+        <v>7.3532979999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>1823.990000</v>
+        <v>1823.99</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1417.800000</v>
+        <v>-1417.8</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>